--- a/biology/Zoologie/Edmontosaurini/Edmontosaurini.xlsx
+++ b/biology/Zoologie/Edmontosaurini/Edmontosaurini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Edmontosaurini forment une tribu éteinte de dinosaures herbivores « à bec de canard »  de la famille des hadrosauridés et de la sous-famille des saurolophinés[5]. Ses fossiles sont connus dans l'hémisphère nord, dans la partie supérieure du Crétacé supérieur, au Campanien et au Maastrichtien, soit il y a environ entre 83,6 à 66,0 millions d'années.
-C'est l'une des quatre tribus rattachées aux Saurolophinae, avec les Brachylophosaurini, les Kritosaurini et les Saurolophini[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Edmontosaurini forment une tribu éteinte de dinosaures herbivores « à bec de canard »  de la famille des hadrosauridés et de la sous-famille des saurolophinés. Ses fossiles sont connus dans l'hémisphère nord, dans la partie supérieure du Crétacé supérieur, au Campanien et au Maastrichtien, soit il y a environ entre 83,6 à 66,0 millions d'années.
+C'est l'une des quatre tribus rattachées aux Saurolophinae, avec les Brachylophosaurini, les Kritosaurini et les Saurolophini.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">† Edmontosaurus Lambe[2], 1917, trouvé au Canada et aux États-Unis, qui a donné son nom à la tribu ;
-† Shantungosaurus Hu[3], 1973, découvert dans la province chinoise de Shandong ;
-† Laiyangosaurus Zhang[4], 2017, découvert également dans la province chinoise de Shandong ;
-† Ugrunaaluk ? Mori[7], 2015, trouvé en Alaska, dont la validité est remise en question[8] ;
-† Kamuysaurus Kobayashi, 2019, découvert dans le bourg de Mukawa, sur l'île de Hokkaidō, au Japon[9],[10].
-Les genres russes Kerberosaurus et  Kundurosaurus d'abord classés comme des Saurolophini[11], sont depuis les années 2010 considérés comme des Edmontosaurini[5],[12],[13], le second pouvant être un synonyme junior du premier[14].
-Pour P. Cruzado-Caballero et J. E. Powell en 2017, seules deux espèces du genre Edmontosaurus : E. annectens et E. saskatchewanensis, appartiennent aux Edmontosaurini[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">† Edmontosaurus Lambe, 1917, trouvé au Canada et aux États-Unis, qui a donné son nom à la tribu ;
+† Shantungosaurus Hu, 1973, découvert dans la province chinoise de Shandong ;
+† Laiyangosaurus Zhang, 2017, découvert également dans la province chinoise de Shandong ;
+† Ugrunaaluk ? Mori, 2015, trouvé en Alaska, dont la validité est remise en question ;
+† Kamuysaurus Kobayashi, 2019, découvert dans le bourg de Mukawa, sur l'île de Hokkaidō, au Japon,.
+Les genres russes Kerberosaurus et  Kundurosaurus d'abord classés comme des Saurolophini, sont depuis les années 2010 considérés comme des Edmontosaurini le second pouvant être un synonyme junior du premier.
+Pour P. Cruzado-Caballero et J. E. Powell en 2017, seules deux espèces du genre Edmontosaurus : E. annectens et E. saskatchewanensis, appartiennent aux Edmontosaurini.
 </t>
         </is>
       </c>
